--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>yearmonth</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>2025-02</t>
+  </si>
+  <si>
+    <t>2025-03</t>
   </si>
 </sst>
 </file>
@@ -542,7 +545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1295,13 +1298,27 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C54">
         <v>216</v>
       </c>
       <c r="D54">
-        <v>73.61111111111111</v>
+        <v>74.07407407407408</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55">
+        <v>77</v>
+      </c>
+      <c r="C55">
+        <v>231</v>
+      </c>
+      <c r="D55">
+        <v>33.33333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>yearmonth</t>
   </si>
@@ -26,18 +26,6 @@
   </si>
   <si>
     <t>retention_rate</t>
-  </si>
-  <si>
-    <t>2020-10</t>
-  </si>
-  <si>
-    <t>2020-11</t>
-  </si>
-  <si>
-    <t>2020-12</t>
-  </si>
-  <si>
-    <t>2021-01</t>
   </si>
   <si>
     <t>2021-02</t>
@@ -545,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -570,13 +558,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C2">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="D2">
-        <v>35.29411764705883</v>
+        <v>26.59574468085106</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -584,13 +572,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="D3">
-        <v>37.77777777777778</v>
+        <v>38.96103896103897</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -598,13 +586,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C4">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="D4">
-        <v>29.54545454545455</v>
+        <v>39.78494623655914</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -612,13 +600,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C5">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="D5">
-        <v>55.55555555555556</v>
+        <v>48.86363636363637</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -626,13 +614,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="C6">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D6">
-        <v>26.59574468085106</v>
+        <v>57.14285714285714</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -640,13 +628,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="C7">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="D7">
-        <v>38.96103896103897</v>
+        <v>51.63934426229508</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -654,13 +642,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="C8">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D8">
-        <v>39.78494623655914</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -668,13 +656,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C9">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="D9">
-        <v>48.86363636363637</v>
+        <v>52.06611570247934</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -682,13 +670,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C10">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="D10">
-        <v>57.14285714285714</v>
+        <v>54.91803278688525</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -696,13 +684,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C11">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D11">
-        <v>51.63934426229508</v>
+        <v>57.46268656716418</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -710,13 +698,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C12">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="D12">
-        <v>61</v>
+        <v>61.41732283464567</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -724,13 +712,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C13">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D13">
-        <v>51.2</v>
+        <v>67.52136752136752</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -738,13 +726,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C14">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="D14">
-        <v>54.6875</v>
+        <v>59.44055944055944</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -752,13 +740,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C15">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D15">
-        <v>56.83453237410072</v>
+        <v>63.63636363636363</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -766,13 +754,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C16">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="D16">
-        <v>61.41732283464567</v>
+        <v>60.95890410958904</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -780,13 +768,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C17">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="D17">
-        <v>67.52136752136752</v>
+        <v>55.39568345323741</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -794,13 +782,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C18">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="D18">
-        <v>59.44055944055944</v>
+        <v>78.57142857142857</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -808,13 +796,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C19">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="D19">
-        <v>63.63636363636363</v>
+        <v>69.23076923076923</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -822,13 +810,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C20">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="D20">
-        <v>60.95890410958904</v>
+        <v>68.26923076923077</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -836,13 +824,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C21">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="D21">
-        <v>55.39568345323741</v>
+        <v>70.37037037037037</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -850,13 +838,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="C22">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="D22">
-        <v>78.57142857142857</v>
+        <v>54.33070866141733</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -864,13 +852,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C23">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="D23">
-        <v>69.23076923076923</v>
+        <v>75.51020408163265</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -878,13 +866,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C24">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="D24">
-        <v>68.26923076923077</v>
+        <v>60.97560975609756</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -892,13 +880,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C25">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D25">
-        <v>70.37037037037037</v>
+        <v>72.11538461538461</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -906,13 +894,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C26">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D26">
-        <v>54.33070866141733</v>
+        <v>62.90322580645162</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -920,13 +908,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C27">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="D27">
-        <v>75.51020408163265</v>
+        <v>66.11570247933885</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -934,13 +922,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C28">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D28">
-        <v>60.97560975609756</v>
+        <v>70.76923076923077</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -948,13 +936,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="C29">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="D29">
-        <v>72.11538461538461</v>
+        <v>75.88652482269504</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -962,13 +950,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="C30">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="D30">
-        <v>62.90322580645162</v>
+        <v>72.02797202797203</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -976,13 +964,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="C31">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="D31">
-        <v>66.11570247933885</v>
+        <v>73.18840579710145</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -990,13 +978,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="C32">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="D32">
-        <v>70.76923076923077</v>
+        <v>76.05633802816901</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1004,13 +992,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C33">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="D33">
-        <v>75.88652482269504</v>
+        <v>71.875</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1018,13 +1006,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="C34">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="D34">
-        <v>72.02797202797203</v>
+        <v>73.71794871794873</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1032,13 +1020,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C35">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="D35">
-        <v>73.18840579710145</v>
+        <v>67.07317073170732</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1046,13 +1034,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C36">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D36">
-        <v>75.52447552447552</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1060,13 +1048,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C37">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="D37">
-        <v>71.875</v>
+        <v>73.42657342657343</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1074,13 +1062,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C38">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="D38">
-        <v>73.71794871794873</v>
+        <v>67.58241758241759</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1088,13 +1076,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C39">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D39">
-        <v>67.07317073170732</v>
+        <v>75.15527950310559</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1102,13 +1090,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="C40">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="D40">
-        <v>66</v>
+        <v>71.95767195767195</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1116,13 +1104,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="C41">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="D41">
-        <v>73.42657342657343</v>
+        <v>72.58883248730965</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1130,13 +1118,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="C42">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="D42">
-        <v>67.58241758241759</v>
+        <v>67.46411483253588</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1144,13 +1132,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="C43">
-        <v>161</v>
+        <v>215</v>
       </c>
       <c r="D43">
-        <v>75.15527950310559</v>
+        <v>69.76744186046511</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1158,13 +1146,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="C44">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="D44">
-        <v>71.95767195767195</v>
+        <v>73.33333333333333</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1172,13 +1160,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="C45">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="D45">
-        <v>72.58883248730965</v>
+        <v>76.10619469026548</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1186,13 +1174,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="C46">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="D46">
-        <v>67.46411483253588</v>
+        <v>74.44933920704845</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1200,13 +1188,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C47">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="D47">
-        <v>69.76744186046511</v>
+        <v>62.39669421487604</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1214,13 +1202,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>165</v>
+        <v>123</v>
       </c>
       <c r="C48">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="D48">
-        <v>73.33333333333333</v>
+        <v>62.43654822335025</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1228,13 +1216,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="C49">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="D49">
-        <v>76.10619469026548</v>
+        <v>74.35897435897436</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1242,13 +1230,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C50">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="D50">
-        <v>74.44933920704845</v>
+        <v>74.07407407407408</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1256,69 +1244,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>151</v>
+        <v>86</v>
       </c>
       <c r="C51">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="D51">
-        <v>62.39669421487604</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52">
-        <v>123</v>
-      </c>
-      <c r="C52">
-        <v>197</v>
-      </c>
-      <c r="D52">
-        <v>62.43654822335025</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53">
-        <v>145</v>
-      </c>
-      <c r="C53">
-        <v>195</v>
-      </c>
-      <c r="D53">
-        <v>74.35897435897436</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54">
-        <v>160</v>
-      </c>
-      <c r="C54">
-        <v>216</v>
-      </c>
-      <c r="D54">
-        <v>74.07407407407408</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55">
-        <v>77</v>
-      </c>
-      <c r="C55">
-        <v>231</v>
-      </c>
-      <c r="D55">
-        <v>33.33333333333333</v>
+        <v>37.39130434782609</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>yearmonth</t>
   </si>
@@ -28,6 +28,18 @@
     <t>retention_rate</t>
   </si>
   <si>
+    <t>2020-10</t>
+  </si>
+  <si>
+    <t>2020-11</t>
+  </si>
+  <si>
+    <t>2020-12</t>
+  </si>
+  <si>
+    <t>2021-01</t>
+  </si>
+  <si>
     <t>2021-02</t>
   </si>
   <si>
@@ -176,6 +188,9 @@
   </si>
   <si>
     <t>2025-03</t>
+  </si>
+  <si>
+    <t>2025-04</t>
   </si>
 </sst>
 </file>
@@ -533,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -558,13 +573,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C2">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="D2">
-        <v>26.59574468085106</v>
+        <v>34.61538461538461</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -572,13 +587,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C3">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>38.96103896103897</v>
+        <v>37.77777777777778</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -586,13 +601,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="D4">
-        <v>39.78494623655914</v>
+        <v>28.88888888888889</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -600,13 +615,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="D5">
-        <v>48.86363636363637</v>
+        <v>55.55555555555556</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -614,13 +629,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="C6">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D6">
-        <v>57.14285714285714</v>
+        <v>26.31578947368421</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -628,13 +643,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="C7">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="D7">
-        <v>51.63934426229508</v>
+        <v>38.96103896103897</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -642,13 +657,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C8">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D8">
-        <v>61</v>
+        <v>39.36170212765958</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -656,13 +671,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="C9">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="D9">
-        <v>52.06611570247934</v>
+        <v>48.31460674157304</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -670,13 +685,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C10">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="D10">
-        <v>54.91803278688525</v>
+        <v>57.14285714285714</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -684,13 +699,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C11">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="D11">
-        <v>57.46268656716418</v>
+        <v>51.63934426229508</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -698,13 +713,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C12">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="D12">
-        <v>61.41732283464567</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -712,13 +727,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C13">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D13">
-        <v>67.52136752136752</v>
+        <v>51.2</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -726,13 +741,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C14">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D14">
-        <v>59.44055944055944</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -740,13 +755,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C15">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D15">
-        <v>63.63636363636363</v>
+        <v>56.83453237410072</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -754,13 +769,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C16">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="D16">
-        <v>60.95890410958904</v>
+        <v>61.41732283464567</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -768,13 +783,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C17">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="D17">
-        <v>55.39568345323741</v>
+        <v>67.52136752136752</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -782,13 +797,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C18">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="D18">
-        <v>78.57142857142857</v>
+        <v>59.44055944055944</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -796,13 +811,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C19">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="D19">
-        <v>69.23076923076923</v>
+        <v>63.63636363636363</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -810,13 +825,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C20">
-        <v>104</v>
+        <v>146</v>
       </c>
       <c r="D20">
-        <v>68.26923076923077</v>
+        <v>60.95890410958904</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -824,13 +839,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C21">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="D21">
-        <v>70.37037037037037</v>
+        <v>55.39568345323741</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -838,13 +853,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="C22">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="D22">
-        <v>54.33070866141733</v>
+        <v>78.57142857142857</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -852,13 +867,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C23">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="D23">
-        <v>75.51020408163265</v>
+        <v>69.23076923076923</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -866,13 +881,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C24">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="D24">
-        <v>60.97560975609756</v>
+        <v>68.26923076923077</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -880,13 +895,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C25">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D25">
-        <v>72.11538461538461</v>
+        <v>70.37037037037037</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -894,13 +909,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C26">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D26">
-        <v>62.90322580645162</v>
+        <v>54.33070866141733</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -908,13 +923,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C27">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="D27">
-        <v>66.11570247933885</v>
+        <v>75.51020408163265</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -922,13 +937,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="C28">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D28">
-        <v>70.76923076923077</v>
+        <v>60.97560975609756</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -936,13 +951,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="C29">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="D29">
-        <v>75.88652482269504</v>
+        <v>72.11538461538461</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -950,13 +965,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="C30">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="D30">
-        <v>72.02797202797203</v>
+        <v>62.90322580645162</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -964,13 +979,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C31">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="D31">
-        <v>73.18840579710145</v>
+        <v>66.11570247933885</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -978,13 +993,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C32">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D32">
-        <v>76.05633802816901</v>
+        <v>70.76923076923077</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -992,13 +1007,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C33">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="D33">
-        <v>71.875</v>
+        <v>75.88652482269504</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1006,13 +1021,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C34">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="D34">
-        <v>73.71794871794873</v>
+        <v>72.02797202797203</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1020,13 +1035,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C35">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="D35">
-        <v>67.07317073170732</v>
+        <v>73.18840579710145</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1034,13 +1049,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C36">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D36">
-        <v>66</v>
+        <v>75.52447552447552</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1048,13 +1063,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C37">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="D37">
-        <v>73.42657342657343</v>
+        <v>71.875</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1062,13 +1077,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C38">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="D38">
-        <v>67.58241758241759</v>
+        <v>73.71794871794873</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1076,13 +1091,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C39">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D39">
-        <v>75.15527950310559</v>
+        <v>67.07317073170732</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1090,13 +1105,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="C40">
-        <v>189</v>
+        <v>150</v>
       </c>
       <c r="D40">
-        <v>71.95767195767195</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1104,13 +1119,13 @@
         <v>43</v>
       </c>
       <c r="B41">
+        <v>105</v>
+      </c>
+      <c r="C41">
         <v>143</v>
       </c>
-      <c r="C41">
-        <v>197</v>
-      </c>
       <c r="D41">
-        <v>72.58883248730965</v>
+        <v>73.42657342657343</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1118,13 +1133,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="C42">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="D42">
-        <v>67.46411483253588</v>
+        <v>68.13186813186813</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1132,13 +1147,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="C43">
-        <v>215</v>
+        <v>162</v>
       </c>
       <c r="D43">
-        <v>69.76744186046511</v>
+        <v>74.69135802469135</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1146,13 +1161,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="C44">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="D44">
-        <v>73.33333333333333</v>
+        <v>71.95767195767195</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1160,13 +1175,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="C45">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="D45">
-        <v>76.10619469026548</v>
+        <v>72.58883248730965</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1174,13 +1189,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="C46">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="D46">
-        <v>74.44933920704845</v>
+        <v>67.46411483253588</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1191,10 +1206,10 @@
         <v>151</v>
       </c>
       <c r="C47">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="D47">
-        <v>62.39669421487604</v>
+        <v>70.23255813953489</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1202,13 +1217,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>123</v>
+        <v>166</v>
       </c>
       <c r="C48">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="D48">
-        <v>62.43654822335025</v>
+        <v>73.45132743362832</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1216,13 +1231,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="C49">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="D49">
-        <v>74.35897435897436</v>
+        <v>76.10619469026548</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1230,13 +1245,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="C50">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D50">
-        <v>74.07407407407408</v>
+        <v>74.44933920704845</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1244,13 +1259,83 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>86</v>
+        <v>151</v>
       </c>
       <c r="C51">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="D51">
-        <v>37.39130434782609</v>
+        <v>62.39669421487604</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52">
+        <v>123</v>
+      </c>
+      <c r="C52">
+        <v>197</v>
+      </c>
+      <c r="D52">
+        <v>62.43654822335025</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53">
+        <v>145</v>
+      </c>
+      <c r="C53">
+        <v>195</v>
+      </c>
+      <c r="D53">
+        <v>74.35897435897436</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54">
+        <v>159</v>
+      </c>
+      <c r="C54">
+        <v>216</v>
+      </c>
+      <c r="D54">
+        <v>73.61111111111111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55">
+        <v>142</v>
+      </c>
+      <c r="C55">
+        <v>229</v>
+      </c>
+      <c r="D55">
+        <v>62.00873362445415</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56">
+        <v>101</v>
+      </c>
+      <c r="C56">
+        <v>204</v>
+      </c>
+      <c r="D56">
+        <v>49.50980392156863</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>yearmonth</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>2025-04</t>
+  </si>
+  <si>
+    <t>2025-05</t>
   </si>
 </sst>
 </file>
@@ -548,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1315,13 +1318,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C55">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D55">
-        <v>62.00873362445415</v>
+        <v>61.63793103448276</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1329,13 +1332,27 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="C56">
         <v>204</v>
       </c>
       <c r="D56">
-        <v>49.50980392156863</v>
+        <v>67.15686274509804</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57">
+        <v>36</v>
+      </c>
+      <c r="C57">
+        <v>220</v>
+      </c>
+      <c r="D57">
+        <v>16.36363636363636</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -579,10 +579,10 @@
         <v>18</v>
       </c>
       <c r="C2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2">
-        <v>34.61538461538461</v>
+        <v>35.29411764705883</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -607,10 +607,10 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4">
-        <v>28.88888888888889</v>
+        <v>29.54545454545455</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -635,10 +635,10 @@
         <v>25</v>
       </c>
       <c r="C6">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D6">
-        <v>26.31578947368421</v>
+        <v>26.59574468085106</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -663,10 +663,10 @@
         <v>37</v>
       </c>
       <c r="C8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D8">
-        <v>39.36170212765958</v>
+        <v>39.78494623655914</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -674,13 +674,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D9">
-        <v>48.31460674157304</v>
+        <v>48.27586206896552</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -688,13 +688,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10">
-        <v>57.14285714285714</v>
+        <v>56.66666666666666</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -705,10 +705,10 @@
         <v>63</v>
       </c>
       <c r="C11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D11">
-        <v>51.63934426229508</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -716,13 +716,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D12">
-        <v>61</v>
+        <v>61.22448979591837</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -730,13 +730,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D13">
-        <v>51.2</v>
+        <v>52.06611570247934</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -744,13 +744,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D14">
-        <v>54.6875</v>
+        <v>54.33070866141733</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -758,13 +758,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D15">
-        <v>56.83453237410072</v>
+        <v>56.52173913043478</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -772,13 +772,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D16">
-        <v>61.41732283464567</v>
+        <v>61.11111111111111</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -786,13 +786,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C17">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D17">
-        <v>67.52136752136752</v>
+        <v>67.24137931034483</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -800,13 +800,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C18">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D18">
-        <v>59.44055944055944</v>
+        <v>59.15492957746478</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -814,13 +814,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C19">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D19">
-        <v>63.63636363636363</v>
+        <v>63.38028169014085</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -828,13 +828,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C20">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D20">
-        <v>60.95890410958904</v>
+        <v>61.11111111111111</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -842,13 +842,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C21">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D21">
-        <v>55.39568345323741</v>
+        <v>55.07246376811595</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -856,13 +856,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C22">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D22">
-        <v>78.57142857142857</v>
+        <v>78.37837837837837</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -884,13 +884,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C24">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D24">
-        <v>68.26923076923077</v>
+        <v>67.96116504854369</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -901,10 +901,10 @@
         <v>76</v>
       </c>
       <c r="C25">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D25">
-        <v>70.37037037037037</v>
+        <v>71.02803738317756</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -915,10 +915,10 @@
         <v>69</v>
       </c>
       <c r="C26">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D26">
-        <v>54.33070866141733</v>
+        <v>55.2</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -926,13 +926,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C27">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D27">
-        <v>75.51020408163265</v>
+        <v>75.25773195876289</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -943,10 +943,10 @@
         <v>75</v>
       </c>
       <c r="C28">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D28">
-        <v>60.97560975609756</v>
+        <v>61.47540983606557</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -985,10 +985,10 @@
         <v>80</v>
       </c>
       <c r="C31">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D31">
-        <v>66.11570247933885</v>
+        <v>66.66666666666666</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1010,13 +1010,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C33">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D33">
-        <v>75.88652482269504</v>
+        <v>75.71428571428571</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1027,10 +1027,10 @@
         <v>103</v>
       </c>
       <c r="C34">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D34">
-        <v>72.02797202797203</v>
+        <v>73.04964539007092</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1041,10 +1041,10 @@
         <v>101</v>
       </c>
       <c r="C35">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D35">
-        <v>73.18840579710145</v>
+        <v>72.66187050359713</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1055,10 +1055,10 @@
         <v>108</v>
       </c>
       <c r="C36">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D36">
-        <v>75.52447552447552</v>
+        <v>76.05633802816901</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1066,13 +1066,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C37">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D37">
-        <v>71.875</v>
+        <v>71.69811320754717</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1080,13 +1080,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D38">
-        <v>73.71794871794873</v>
+        <v>74.02597402597402</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1097,10 +1097,10 @@
         <v>110</v>
       </c>
       <c r="C39">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D39">
-        <v>67.07317073170732</v>
+        <v>67.90123456790124</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1122,13 +1122,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C41">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D41">
-        <v>73.42657342657343</v>
+        <v>72.3404255319149</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1136,13 +1136,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C42">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D42">
-        <v>68.13186813186813</v>
+        <v>68.36158192090396</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1150,13 +1150,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C43">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D43">
-        <v>74.69135802469135</v>
+        <v>75.47169811320755</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1164,13 +1164,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C44">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D44">
-        <v>71.95767195767195</v>
+        <v>71.89189189189189</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1178,13 +1178,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C45">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D45">
-        <v>72.58883248730965</v>
+        <v>72.68041237113401</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1192,13 +1192,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C46">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D46">
-        <v>67.46411483253588</v>
+        <v>68.59903381642512</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1206,13 +1206,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C47">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D47">
-        <v>70.23255813953489</v>
+        <v>71.02803738317756</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1220,13 +1220,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C48">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D48">
-        <v>73.45132743362832</v>
+        <v>72.64573991031391</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C49">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D49">
-        <v>76.10619469026548</v>
+        <v>75.44642857142857</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1248,13 +1248,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C50">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D50">
-        <v>74.44933920704845</v>
+        <v>74.43946188340807</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C51">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D51">
-        <v>62.39669421487604</v>
+        <v>63.13559322033898</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1276,13 +1276,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C52">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D52">
-        <v>62.43654822335025</v>
+        <v>59.79381443298969</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1290,13 +1290,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C53">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="D53">
-        <v>74.35897435897436</v>
+        <v>73.11827956989248</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C54">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="D54">
-        <v>73.61111111111111</v>
+        <v>73.30097087378641</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C55">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="D55">
-        <v>61.63793103448276</v>
+        <v>60.98654708520179</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1332,13 +1332,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C56">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="D56">
-        <v>67.15686274509804</v>
+        <v>68.47826086956522</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1346,13 +1346,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="C57">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="D57">
-        <v>16.36363636363636</v>
+        <v>35.57692307692308</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -1346,13 +1346,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="C57">
         <v>208</v>
       </c>
       <c r="D57">
-        <v>35.57692307692308</v>
+        <v>52.88461538461539</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -1346,13 +1346,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C57">
         <v>208</v>
       </c>
       <c r="D57">
-        <v>52.88461538461539</v>
+        <v>55.76923076923077</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -1346,13 +1346,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C57">
         <v>208</v>
       </c>
       <c r="D57">
-        <v>55.76923076923077</v>
+        <v>58.65384615384615</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -1346,13 +1346,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C57">
         <v>208</v>
       </c>
       <c r="D57">
-        <v>58.65384615384615</v>
+        <v>59.61538461538461</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -1346,13 +1346,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C57">
         <v>208</v>
       </c>
       <c r="D57">
-        <v>59.61538461538461</v>
+        <v>61.53846153846154</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -1346,13 +1346,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C57">
         <v>208</v>
       </c>
       <c r="D57">
-        <v>61.53846153846154</v>
+        <v>65.86538461538461</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -1346,13 +1346,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C57">
         <v>208</v>
       </c>
       <c r="D57">
-        <v>65.86538461538461</v>
+        <v>66.34615384615384</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>yearmonth</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>2025-05</t>
+  </si>
+  <si>
+    <t>2025-06</t>
   </si>
 </sst>
 </file>
@@ -551,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1346,13 +1349,27 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C57">
         <v>208</v>
       </c>
       <c r="D57">
-        <v>66.34615384615384</v>
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58">
+        <v>216</v>
+      </c>
+      <c r="D58">
+        <v>0.9259259259259258</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -1363,13 +1363,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C58">
         <v>216</v>
       </c>
       <c r="D58">
-        <v>0.9259259259259258</v>
+        <v>10.64814814814815</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -1363,13 +1363,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C58">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D58">
-        <v>10.64814814814815</v>
+        <v>18.63636363636364</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -1349,13 +1349,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C57">
         <v>208</v>
       </c>
       <c r="D57">
-        <v>68.75</v>
+        <v>69.23076923076923</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1363,13 +1363,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C58">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D58">
-        <v>18.63636363636364</v>
+        <v>22.17194570135747</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -677,13 +677,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D9">
-        <v>48.27586206896552</v>
+        <v>48.86363636363637</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -691,13 +691,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C10">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D10">
-        <v>56.66666666666666</v>
+        <v>57.14285714285714</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -708,10 +708,10 @@
         <v>63</v>
       </c>
       <c r="C11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D11">
-        <v>52.5</v>
+        <v>51.63934426229508</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -719,13 +719,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C12">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D12">
-        <v>61.22448979591837</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -733,13 +733,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C13">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D13">
-        <v>52.06611570247934</v>
+        <v>51.2</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -747,13 +747,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C14">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D14">
-        <v>54.33070866141733</v>
+        <v>54.6875</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -761,13 +761,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C15">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D15">
-        <v>56.52173913043478</v>
+        <v>56.83453237410072</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -775,13 +775,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C16">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D16">
-        <v>61.11111111111111</v>
+        <v>61.41732283464567</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -789,13 +789,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C17">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D17">
-        <v>67.24137931034483</v>
+        <v>67.52136752136752</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -803,13 +803,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C18">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D18">
-        <v>59.15492957746478</v>
+        <v>59.44055944055944</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -817,13 +817,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C19">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D19">
-        <v>63.38028169014085</v>
+        <v>63.63636363636363</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -831,13 +831,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C20">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D20">
-        <v>61.11111111111111</v>
+        <v>60.95890410958904</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -845,13 +845,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C21">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D21">
-        <v>55.07246376811595</v>
+        <v>55.39568345323741</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -859,13 +859,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C22">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D22">
-        <v>78.37837837837837</v>
+        <v>78.57142857142857</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -887,13 +887,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C24">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D24">
-        <v>67.96116504854369</v>
+        <v>68.26923076923077</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -904,10 +904,10 @@
         <v>76</v>
       </c>
       <c r="C25">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D25">
-        <v>71.02803738317756</v>
+        <v>70.37037037037037</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -918,10 +918,10 @@
         <v>69</v>
       </c>
       <c r="C26">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D26">
-        <v>55.2</v>
+        <v>54.33070866141733</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -929,13 +929,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C27">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D27">
-        <v>75.25773195876289</v>
+        <v>75.51020408163265</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -946,10 +946,10 @@
         <v>75</v>
       </c>
       <c r="C28">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D28">
-        <v>61.47540983606557</v>
+        <v>60.97560975609756</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -988,10 +988,10 @@
         <v>80</v>
       </c>
       <c r="C31">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D31">
-        <v>66.66666666666666</v>
+        <v>66.11570247933885</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1013,13 +1013,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C33">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D33">
-        <v>75.71428571428571</v>
+        <v>75.88652482269504</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1030,10 +1030,10 @@
         <v>103</v>
       </c>
       <c r="C34">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D34">
-        <v>73.04964539007092</v>
+        <v>72.02797202797203</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1044,10 +1044,10 @@
         <v>101</v>
       </c>
       <c r="C35">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D35">
-        <v>72.66187050359713</v>
+        <v>73.18840579710145</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1058,10 +1058,10 @@
         <v>108</v>
       </c>
       <c r="C36">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D36">
-        <v>76.05633802816901</v>
+        <v>75.52447552447552</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1069,13 +1069,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C37">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D37">
-        <v>71.69811320754717</v>
+        <v>71.875</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1083,13 +1083,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C38">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D38">
-        <v>74.02597402597402</v>
+        <v>73.71794871794873</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1100,10 +1100,10 @@
         <v>110</v>
       </c>
       <c r="C39">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D39">
-        <v>67.90123456790124</v>
+        <v>67.07317073170732</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1125,13 +1125,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C41">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D41">
-        <v>72.3404255319149</v>
+        <v>73.42657342657343</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1139,13 +1139,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C42">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D42">
-        <v>68.36158192090396</v>
+        <v>67.58241758241759</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1153,13 +1153,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C43">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D43">
-        <v>75.47169811320755</v>
+        <v>75.15527950310559</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1167,13 +1167,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C44">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D44">
-        <v>71.89189189189189</v>
+        <v>71.95767195767195</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1181,13 +1181,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C45">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D45">
-        <v>72.68041237113401</v>
+        <v>72.58883248730965</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1195,13 +1195,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C46">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D46">
-        <v>68.59903381642512</v>
+        <v>67.46411483253588</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1209,13 +1209,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C47">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D47">
-        <v>71.02803738317756</v>
+        <v>69.76744186046511</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1223,13 +1223,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C48">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D48">
-        <v>72.64573991031391</v>
+        <v>73.33333333333333</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1237,13 +1237,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C49">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D49">
-        <v>75.44642857142857</v>
+        <v>76.10619469026548</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1251,13 +1251,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C50">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D50">
-        <v>74.43946188340807</v>
+        <v>74.44933920704845</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1265,13 +1265,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C51">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D51">
-        <v>63.13559322033898</v>
+        <v>62.39669421487604</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1279,13 +1279,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C52">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D52">
-        <v>59.79381443298969</v>
+        <v>62.43654822335025</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1293,13 +1293,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C53">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="D53">
-        <v>73.11827956989248</v>
+        <v>74.35897435897436</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1307,13 +1307,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C54">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="D54">
-        <v>73.30097087378641</v>
+        <v>73.61111111111111</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1321,13 +1321,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C55">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="D55">
-        <v>60.98654708520179</v>
+        <v>61.63793103448276</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1335,13 +1335,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="C56">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="D56">
-        <v>68.47826086956522</v>
+        <v>67.98029556650246</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1349,13 +1349,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="C57">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="D57">
-        <v>69.23076923076923</v>
+        <v>71.62162162162163</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1363,13 +1363,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C58">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="D58">
-        <v>22.17194570135747</v>
+        <v>26.22950819672131</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -1363,13 +1363,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C58">
         <v>244</v>
       </c>
       <c r="D58">
-        <v>26.22950819672131</v>
+        <v>31.9672131147541</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -1363,13 +1363,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C58">
         <v>244</v>
       </c>
       <c r="D58">
-        <v>31.9672131147541</v>
+        <v>34.01639344262295</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -1363,13 +1363,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C58">
         <v>244</v>
       </c>
       <c r="D58">
-        <v>34.01639344262295</v>
+        <v>39.75409836065574</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -1363,13 +1363,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C58">
         <v>244</v>
       </c>
       <c r="D58">
-        <v>39.75409836065574</v>
+        <v>40.98360655737705</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -1363,13 +1363,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C58">
         <v>244</v>
       </c>
       <c r="D58">
-        <v>40.98360655737705</v>
+        <v>43.44262295081967</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -1363,13 +1363,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C58">
         <v>244</v>
       </c>
       <c r="D58">
-        <v>43.44262295081967</v>
+        <v>46.31147540983606</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -1363,13 +1363,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C58">
         <v>244</v>
       </c>
       <c r="D58">
-        <v>46.31147540983606</v>
+        <v>48.77049180327869</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -1363,13 +1363,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C58">
         <v>244</v>
       </c>
       <c r="D58">
-        <v>48.77049180327869</v>
+        <v>51.22950819672131</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -1363,13 +1363,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C58">
         <v>244</v>
       </c>
       <c r="D58">
-        <v>51.22950819672131</v>
+        <v>52.45901639344262</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -1363,13 +1363,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C58">
         <v>244</v>
       </c>
       <c r="D58">
-        <v>52.45901639344262</v>
+        <v>54.91803278688525</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -1363,13 +1363,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C58">
         <v>244</v>
       </c>
       <c r="D58">
-        <v>54.91803278688525</v>
+        <v>56.14754098360656</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -1363,13 +1363,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C58">
         <v>244</v>
       </c>
       <c r="D58">
-        <v>56.14754098360656</v>
+        <v>57.78688524590164</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -1363,13 +1363,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C58">
         <v>244</v>
       </c>
       <c r="D58">
-        <v>57.78688524590164</v>
+        <v>60.65573770491803</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -1363,13 +1363,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C58">
         <v>244</v>
       </c>
       <c r="D58">
-        <v>60.65573770491803</v>
+        <v>63.52459016393443</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>yearmonth</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>2025-06</t>
+  </si>
+  <si>
+    <t>2025-07</t>
   </si>
 </sst>
 </file>
@@ -554,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1363,13 +1366,27 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C58">
         <v>244</v>
       </c>
       <c r="D58">
-        <v>63.52459016393443</v>
+        <v>65.98360655737704</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>227</v>
+      </c>
+      <c r="D59">
+        <v>0.4405286343612335</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -1366,13 +1366,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C58">
         <v>244</v>
       </c>
       <c r="D58">
-        <v>65.98360655737704</v>
+        <v>66.39344262295081</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1380,13 +1380,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C59">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D59">
-        <v>0.4405286343612335</v>
+        <v>4.824561403508771</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -1380,13 +1380,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C59">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D59">
-        <v>4.824561403508771</v>
+        <v>12.22707423580786</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -1380,13 +1380,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C59">
         <v>229</v>
       </c>
       <c r="D59">
-        <v>12.22707423580786</v>
+        <v>16.15720524017467</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -1380,13 +1380,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C59">
         <v>229</v>
       </c>
       <c r="D59">
-        <v>16.15720524017467</v>
+        <v>19.65065502183406</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -1380,13 +1380,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="C59">
         <v>229</v>
       </c>
       <c r="D59">
-        <v>19.65065502183406</v>
+        <v>30.56768558951965</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -1380,13 +1380,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C59">
         <v>229</v>
       </c>
       <c r="D59">
-        <v>30.56768558951965</v>
+        <v>35.37117903930131</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -1380,13 +1380,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C59">
         <v>229</v>
       </c>
       <c r="D59">
-        <v>35.37117903930131</v>
+        <v>37.55458515283843</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -1380,13 +1380,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C59">
         <v>229</v>
       </c>
       <c r="D59">
-        <v>37.55458515283843</v>
+        <v>39.73799126637554</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -1380,13 +1380,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C59">
         <v>229</v>
       </c>
       <c r="D59">
-        <v>39.73799126637554</v>
+        <v>44.10480349344978</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -1380,13 +1380,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C59">
         <v>229</v>
       </c>
       <c r="D59">
-        <v>44.10480349344978</v>
+        <v>47.16157205240174</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -1380,13 +1380,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C59">
         <v>229</v>
       </c>
       <c r="D59">
-        <v>47.16157205240174</v>
+        <v>49.34497816593886</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -1380,13 +1380,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C59">
         <v>229</v>
       </c>
       <c r="D59">
-        <v>49.34497816593886</v>
+        <v>50.65502183406113</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -1380,13 +1380,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C59">
         <v>229</v>
       </c>
       <c r="D59">
-        <v>50.65502183406113</v>
+        <v>51.52838427947598</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -1380,13 +1380,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C59">
         <v>229</v>
       </c>
       <c r="D59">
-        <v>51.52838427947598</v>
+        <v>52.83842794759826</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -1380,13 +1380,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C59">
         <v>229</v>
       </c>
       <c r="D59">
-        <v>52.83842794759826</v>
+        <v>55.02183406113537</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -1380,13 +1380,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C59">
         <v>229</v>
       </c>
       <c r="D59">
-        <v>55.02183406113537</v>
+        <v>57.20524017467249</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -1380,13 +1380,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C59">
         <v>229</v>
       </c>
       <c r="D59">
-        <v>57.20524017467249</v>
+        <v>58.95196506550219</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -1380,13 +1380,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C59">
         <v>229</v>
       </c>
       <c r="D59">
-        <v>58.95196506550219</v>
+        <v>60.69868995633188</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -1380,13 +1380,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C59">
         <v>229</v>
       </c>
       <c r="D59">
-        <v>60.69868995633188</v>
+        <v>62.00873362445415</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -1380,13 +1380,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C59">
         <v>229</v>
       </c>
       <c r="D59">
-        <v>62.00873362445415</v>
+        <v>65.50218340611353</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -1380,13 +1380,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C59">
         <v>229</v>
       </c>
       <c r="D59">
-        <v>65.50218340611353</v>
+        <v>67.24890829694323</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>yearmonth</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>2025-07</t>
+  </si>
+  <si>
+    <t>2025-08</t>
   </si>
 </sst>
 </file>
@@ -557,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1380,13 +1383,27 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C59">
         <v>229</v>
       </c>
       <c r="D59">
-        <v>67.24890829694323</v>
+        <v>68.5589519650655</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60">
+        <v>11</v>
+      </c>
+      <c r="C60">
+        <v>238</v>
+      </c>
+      <c r="D60">
+        <v>4.621848739495799</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -1397,13 +1397,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C60">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D60">
-        <v>4.621848739495799</v>
+        <v>11.29707112970711</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -1397,13 +1397,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>239</v>
       </c>
       <c r="D60">
-        <v>11.29707112970711</v>
+        <v>14.64435146443515</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -1397,13 +1397,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C60">
         <v>239</v>
       </c>
       <c r="D60">
-        <v>14.64435146443515</v>
+        <v>20.0836820083682</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -1397,13 +1397,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="C60">
         <v>239</v>
       </c>
       <c r="D60">
-        <v>20.0836820083682</v>
+        <v>32.63598326359833</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -1397,13 +1397,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C60">
         <v>239</v>
       </c>
       <c r="D60">
-        <v>32.63598326359833</v>
+        <v>35.56485355648535</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -1397,13 +1397,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="C60">
         <v>239</v>
       </c>
       <c r="D60">
-        <v>35.56485355648535</v>
+        <v>43.51464435146444</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -1397,13 +1397,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="C60">
         <v>239</v>
       </c>
       <c r="D60">
-        <v>43.51464435146444</v>
+        <v>48.53556485355649</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -1397,13 +1397,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C60">
         <v>239</v>
       </c>
       <c r="D60">
-        <v>48.53556485355649</v>
+        <v>49.37238493723849</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -1397,13 +1397,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C60">
         <v>239</v>
       </c>
       <c r="D60">
-        <v>49.37238493723849</v>
+        <v>51.88284518828452</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -1397,13 +1397,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C60">
         <v>239</v>
       </c>
       <c r="D60">
-        <v>51.88284518828452</v>
+        <v>52.71966527196653</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
+++ b/dados/ADD/Dados_ADD_PF/metricas_recorrencia_mensal.xlsx
@@ -1397,13 +1397,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="C60">
         <v>239</v>
       </c>
       <c r="D60">
-        <v>52.71966527196653</v>
+        <v>58.99581589958159</v>
       </c>
     </row>
   </sheetData>
